--- a/data/trans_dic/P26_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P26_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha aumentado el consumo de medicación respecto al último mes</t>
+          <t>Población que ha aumentado el consumo de medicación respecto al último mes (tasa de respuesta: 99,93%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,7 +681,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>25,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,52 +691,67 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>26,44%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>3,31%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>10,52%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>23,86%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>24,08%</t>
+          <t>11,04%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>18,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>25,03%</t>
+          <t>2,57%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>7,19%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>5,35%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>4,85%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 76,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,36</t>
+          <t>0,0; 14,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 73,07</t>
+          <t>0,0; 19,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>0,0; 18,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,16; 48,93</t>
+          <t>0,0; 16,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,81; 47,97</t>
+          <t>4,04; 22,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 55,44</t>
+          <t>1,77; 16,49</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,59</t>
+          <t>1,51; 17,89</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,68; 34,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,56; 53,47</t>
+          <t>0,0; 8,46</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>2,51; 14,32</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1,28; 13,96</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1,23; 11,82</t>
         </is>
       </c>
     </row>
@@ -801,57 +856,72 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,46%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>29,19%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>22,56%</t>
+          <t>25,45%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>21,26%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>20,94%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>17,32%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>4,45%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>6,12%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>8,25%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>16,74%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,83</t>
+          <t>0,0; 9,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,72</t>
+          <t>0,0; 13,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,51; 57,39</t>
+          <t>3,11; 24,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,7</t>
+          <t>0,0; 65,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,96; 43,13</t>
+          <t>0,0; 9,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,47; 39,57</t>
+          <t>1,8; 15,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,86; 26,85</t>
+          <t>3,17; 18,95</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,52</t>
+          <t>1,68; 15,39</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,78; 30,16</t>
+          <t>0,73; 11,74</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,25; 30,46</t>
+          <t>0,0; 5,25</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,57; 32,43</t>
+          <t>1,49; 9,27</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>2,67; 12,58</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>3,73; 16,57</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>2,43; 44,49</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,41%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,28%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>26,0%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>21,6%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>22,43%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>3,58%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>7,66%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>6,33%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>4,24%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,65</t>
+          <t>0,0; 9,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,97; 32,57</t>
+          <t>1,54; 14,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,14; 30,26</t>
+          <t>1,53; 15,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,43; 27,55</t>
+          <t>0,0; 10,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,47; 21,04</t>
+          <t>0,0; 5,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,68; 36,52</t>
+          <t>1,78; 10,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,99; 31,6</t>
+          <t>4,8; 15,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,59; 21,59</t>
+          <t>3,18; 12,47</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,81; 17,73</t>
+          <t>2,75; 12,93</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,4; 31,19</t>
+          <t>0,0; 2,8</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,12; 26,99</t>
+          <t>1,61; 7,86</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>4,41; 12,98</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>3,23; 10,97</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2,09; 8,51</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,88%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,64%</t>
+          <t>10,38%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,67%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>26,21%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>21,04%</t>
+          <t>17,91%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>11,22%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>23,11%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>20,09%</t>
+          <t>5,05%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>12,56%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>11,15%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>8,64%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,62; 25,0</t>
+          <t>0,0; 7,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,88</t>
+          <t>0,0; 7,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,29; 30,78</t>
+          <t>2,48; 13,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,43; 29,24</t>
+          <t>5,0; 18,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,72; 21,65</t>
+          <t>2,57; 15,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,41; 22,07</t>
+          <t>1,98; 11,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,59; 35,09</t>
+          <t>4,06; 15,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,1; 29,71</t>
+          <t>11,5; 26,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,14; 19,51</t>
+          <t>6,53; 19,51</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,44; 15,36</t>
+          <t>4,64; 16,84</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,28; 30,2</t>
+          <t>1,7; 7,66</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,4; 26,86</t>
+          <t>2,74; 8,89</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>8,32; 17,77</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>7,18; 16,55</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>4,99; 13,22</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1361,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>13,92%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>22,0%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>11,95%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>15,72%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>10,16%</t>
+          <t>8,48%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>5,38%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>7,54%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>10,97%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,77</t>
+          <t>0,0; 7,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,35; 15,37</t>
+          <t>1,65; 15,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,03; 17,85</t>
+          <t>0,0; 9,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,89; 18,34</t>
+          <t>3,84; 18,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,16; 17,52</t>
+          <t>3,86; 19,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,42; 22,97</t>
+          <t>0,0; 14,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,82; 31,86</t>
+          <t>4,48; 22,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,73; 17,25</t>
+          <t>3,52; 20,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,67; 9,88</t>
+          <t>1,64; 14,06</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,1; 16,09</t>
+          <t>4,16; 25,12</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,41; 22,45</t>
+          <t>0,74; 7,06</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,04; 15,46</t>
+          <t>4,18; 14,86</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>2,22; 10,28</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>3,77; 13,32</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>5,44; 19,52</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1531,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>23,04%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>8,92%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>14,25%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>8,5%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>2,29%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>8,62%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>8,62%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1614,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,13; 18,98</t>
+          <t>2,18; 17,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,41; 13,91</t>
+          <t>0,0; 16,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,68</t>
+          <t>0,0; 12,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,2; 18,41</t>
+          <t>2,48; 21,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,42; 12,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,04; 16,84</t>
+          <t>1,8; 15,6</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,65</t>
+          <t>4,1; 21,35</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,06; 53,9</t>
+          <t>0,0; 11,38</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,55; 12,66</t>
+          <t>2,02; 26,42</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3,93; 12,84</t>
+          <t>4,51; 31,01</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,59; 5,32</t>
+          <t>2,18; 13,12</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>6,93; 48,03</t>
+          <t>3,63; 16,68</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 7,95</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>3,6; 19,42</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>3,15; 19,76</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1701,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>12,53%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>19,12%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>19,0%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>15,52%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>17,47%</t>
+          <t>5,24%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>7,44%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>7,94%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>9,04%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,24; 10,82</t>
+          <t>0,58; 3,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,0; 8,7</t>
+          <t>1,41; 5,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,8; 14,65</t>
+          <t>2,26; 6,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,95; 21,7</t>
+          <t>5,32; 11,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,57; 12,68</t>
+          <t>3,6; 24,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,41; 16,71</t>
+          <t>1,67; 5,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,43; 23,28</t>
+          <t>5,04; 9,92</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>13,07; 34,13</t>
+          <t>7,73; 13,57</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,37; 10,52</t>
+          <t>5,35; 10,92</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>7,18; 11,98</t>
+          <t>5,86; 12,37</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>12,91; 18,37</t>
+          <t>1,38; 3,56</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>13,75; 26,67</t>
+          <t>3,69; 6,9</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>5,76; 9,62</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>6,17; 10,52</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>5,85; 16,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1628,15 +1870,1980 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha aumentado el consumo de medicación respecto al último mes (tasa de respuesta: 99,93%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2970</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>5592</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>4820</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>6189</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>13258</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>7791</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>9310</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>6189</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>16228</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>13383</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>14129</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15529</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 24485</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 26423</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 21660</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4852; 26911</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2168; 20200</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2200; 26037</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 20399</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>5671; 32338</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>3205; 34912</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>3578; 34434</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3281</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>5799</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>15697</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>57940</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2421</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>11583</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>10739</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>7466</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>7339</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2421</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>14865</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>16538</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>23162</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>65279</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 15282</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 19277</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>4801; 37077</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 149933</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 12124</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2974; 25656</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>4016; 24012</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2123; 19434</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1182; 19063</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 14190</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>4981; 30948</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>7202; 33988</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>10457; 46507</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>9496; 173559</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2902</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6864</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>7941</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3142</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1949</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>12370</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>19471</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>13468</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>14656</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1949</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>15272</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>26335</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>21409</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>17798</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15546</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2072; 18932</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2109; 21668</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 18787</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 11205</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4699; 27740</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10052; 33455</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6381; 24998</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>6580; 30994</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 9944</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6880; 33500</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>15150; 44614</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>10921; 37088</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>8780; 35740</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>4282</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2493</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>10289</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>16215</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>15900</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>10162</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>17862</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>33304</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>20438</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>19890</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>14444</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>20355</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>43593</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>36653</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>35790</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 12859</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 13194</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3993; 22401</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>7804; 28477</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>5181; 30411</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3788; 22418</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>8790; 33096</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>21390; 48606</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>11263; 33640</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>9863; 35834</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>6032; 27183</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>11062; 35834</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>28870; 61678</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>23607; 54403</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>20650; 54753</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1855</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>9959</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3409</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>11472</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>15638</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>4443</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>13239</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>8735</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>4811</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>16118</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>6298</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>23198</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>12143</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>16282</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>31756</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 9841</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2604; 24094</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 12163</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4731; 22753</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>5966; 30353</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 14836</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>5210; 26078</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>3302; 19112</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1519; 13026</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>5605; 33886</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1802; 17118</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>11443; 40659</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>5015; 23216</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>8128; 28754</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>15737; 56519</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>6451</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>6137</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2156</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>7428</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>6202</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>14844</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2210</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>9871</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>30043</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>12653</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>20981</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>4366</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>17299</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>30043</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1963; 15927</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 17636</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 10902</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2237; 19499</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1924; 16698</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>5646; 29382</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 11732</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>2233; 29226</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>9509; 65366</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>4307; 25873</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>8961; 41179</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>0; 15139</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>7223; 38990</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>10966; 68904</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>12588</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>24771</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>31487</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>64345</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>97441</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>25177</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>76088</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>87716</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>63845</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>97355</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>37765</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>100859</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>119203</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>128190</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>194796</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>4401; 28186</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>12576; 46270</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>17248; 53365</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>41946; 92952</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>37719; 252691</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>14462; 44413</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>52121; 102543</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>64882; 113868</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>44121; 90124</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>64808; 136785</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>22371; 57803</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>71009; 132881</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>92389; 154142</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>99561; 169783</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>126022; 357540</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>